--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22071C93-60EC-7943-8EB5-C1A076494135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC147FC-CAC2-6843-8750-5795AE4C8819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="44340" yWindow="3700" windowWidth="26720" windowHeight="16760" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,9 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Word Cross</t>
-  </si>
-  <si>
     <t>folder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,41 +70,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WordGameAD</t>
-  </si>
-  <si>
-    <t>SolitaireAD</t>
-  </si>
-  <si>
-    <t>Pyramid Solitaire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Cross_FR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Cross_CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.queensgame.pyramid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.wordgame.puzzle.board.fr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.wordgame.puzzle.board.cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>android</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>老纸牌</t>
+    <t>com.game.BubbleShooter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pandoomobile.GemsJourney</t>
+  </si>
+  <si>
+    <t>com.game.BMX_Boy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hapogames.BubbleParadise</t>
+  </si>
+  <si>
+    <t>com.game.JewelsStar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.SkaterBoy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.coolmango.sudokufun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.JewelsLegend</t>
+  </si>
+  <si>
+    <t>com.game.JewelsStar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.racingmoto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hapogames.BubbleParadise2</t>
+  </si>
+  <si>
+    <t>com.game.basketballshoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.boomanddoom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.BubbleFarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.BubblePirate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.BubbleShooter2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pandoomobile.BubbleSpace</t>
+  </si>
+  <si>
+    <t>com.game.BubbleTotem</t>
+  </si>
+  <si>
+    <t>org.candylegend</t>
+  </si>
+  <si>
+    <t>com.game.DragonGem</t>
+  </si>
+  <si>
+    <t>org.cocos2dx.FarmStory</t>
+  </si>
+  <si>
+    <t>com.pandoomobile.GemsJourney2</t>
+  </si>
+  <si>
+    <t>com.games.JewelsNinja</t>
+  </si>
+  <si>
+    <t>com.game.JewelsStar3</t>
+  </si>
+  <si>
+    <t>com.pandoomobile.MagicMania</t>
+  </si>
+  <si>
+    <t>com.game.MarbleSaga</t>
+  </si>
+  <si>
+    <t>com.game.MarbleSaga2</t>
+  </si>
+  <si>
+    <t>com.game.PoolMania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.SkaterBoyLegend</t>
+  </si>
+  <si>
+    <t>com.games.msplash</t>
+  </si>
+  <si>
+    <t>org.mania2048</t>
+  </si>
+  <si>
+    <t>com.games.basketball</t>
+  </si>
+  <si>
+    <t>com.games.galaxybowling</t>
+  </si>
+  <si>
+    <t>com.games.SpeedRacing</t>
+  </si>
+  <si>
+    <t>com.smootem.letmeout</t>
+  </si>
+  <si>
+    <t>Bubble Shooter</t>
+  </si>
+  <si>
+    <t>BMX Boy</t>
+  </si>
+  <si>
+    <t>Bubble Worlds</t>
+  </si>
+  <si>
+    <t>Jewels Star</t>
+  </si>
+  <si>
+    <t>Skater Boy</t>
+  </si>
+  <si>
+    <t>Sudoku Fun</t>
+  </si>
+  <si>
+    <t>Jewels Legend</t>
+  </si>
+  <si>
+    <t>Jewels Star2</t>
+  </si>
+  <si>
+    <t>Racing Moto</t>
+  </si>
+  <si>
+    <t>Bubble Adventure</t>
+  </si>
+  <si>
+    <t>BasketBallShoot</t>
+  </si>
+  <si>
+    <t>BoomAndDoom</t>
+  </si>
+  <si>
+    <t>BubbleFarm</t>
+  </si>
+  <si>
+    <t>BubblePirate</t>
+  </si>
+  <si>
+    <t>Bubble Shooter 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleSpace</t>
+  </si>
+  <si>
+    <t>BubbleTotem</t>
+  </si>
+  <si>
+    <t>CandiesLegend</t>
+  </si>
+  <si>
+    <t>DragonGem</t>
+  </si>
+  <si>
+    <t>FarmStory</t>
+  </si>
+  <si>
+    <t>GemsJourney2</t>
+  </si>
+  <si>
+    <t>JewelsNinja</t>
+  </si>
+  <si>
+    <t>Jewels Star3</t>
+  </si>
+  <si>
+    <t>MagicMania</t>
+  </si>
+  <si>
+    <t>MarbleSaga</t>
+  </si>
+  <si>
+    <t>MarbleSaga2</t>
+  </si>
+  <si>
+    <t>PoolMania</t>
+  </si>
+  <si>
+    <t>SkateBoy2</t>
+  </si>
+  <si>
+    <t>MonsterSplash</t>
+  </si>
+  <si>
+    <t>NumberPuzzle</t>
+  </si>
+  <si>
+    <t>BasketBall</t>
+  </si>
+  <si>
+    <t>Bowling Star</t>
+  </si>
+  <si>
+    <t>Speed Racing</t>
+  </si>
+  <si>
+    <t>LetMeOut</t>
+  </si>
+  <si>
+    <t>fuzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SolitaireAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_release</t>
+  </si>
+  <si>
+    <t>Gems Journey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AE866-1385-4E4B-A976-49DEA77E765F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="23"/>
@@ -501,7 +700,7 @@
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -532,58 +731,707 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talefun-my.sharepoint.cn/personal/yangfuchao_talefun_partner_onmschina_cn/Documents/工作安排/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC147FC-CAC2-6843-8750-5795AE4C8819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B00DA8FF-59E9-C248-9159-D9975A2B064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE41C3D3-C083-C34F-844A-625F05449BF1}"/>
   <bookViews>
-    <workbookView xWindow="44340" yWindow="3700" windowWidth="26720" windowHeight="16760" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="47280" yWindow="1580" windowWidth="26720" windowHeight="16760" activeTab="2" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="240">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,229 +72,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>com.game.BubbleShooter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pandoomobile.GemsJourney</t>
+  </si>
+  <si>
+    <t>com.game.BMX_Boy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hapogames.BubbleParadise</t>
+  </si>
+  <si>
+    <t>com.game.JewelsStar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.SkaterBoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.coolmango.sudokufun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.JewelsLegend</t>
+  </si>
+  <si>
+    <t>com.game.JewelsStar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.racingmoto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hapogames.BubbleParadise2</t>
+  </si>
+  <si>
+    <t>com.game.basketballshoot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.boomanddoom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.BubbleFarm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.BubblePirate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.BubbleShooter2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pandoomobile.BubbleSpace</t>
+  </si>
+  <si>
+    <t>com.game.BubbleTotem</t>
+  </si>
+  <si>
+    <t>org.candylegend</t>
+  </si>
+  <si>
+    <t>com.game.DragonGem</t>
+  </si>
+  <si>
+    <t>org.cocos2dx.FarmStory</t>
+  </si>
+  <si>
+    <t>com.pandoomobile.GemsJourney2</t>
+  </si>
+  <si>
+    <t>com.games.JewelsNinja</t>
+  </si>
+  <si>
+    <t>com.game.JewelsStar3</t>
+  </si>
+  <si>
+    <t>com.pandoomobile.MagicMania</t>
+  </si>
+  <si>
+    <t>com.game.MarbleSaga</t>
+  </si>
+  <si>
+    <t>com.game.MarbleSaga2</t>
+  </si>
+  <si>
+    <t>com.game.PoolMania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.games.SkaterBoyLegend</t>
+  </si>
+  <si>
+    <t>com.games.msplash</t>
+  </si>
+  <si>
+    <t>org.mania2048</t>
+  </si>
+  <si>
+    <t>com.games.basketball</t>
+  </si>
+  <si>
+    <t>com.games.galaxybowling</t>
+  </si>
+  <si>
+    <t>com.games.SpeedRacing</t>
+  </si>
+  <si>
+    <t>com.smootem.letmeout</t>
+  </si>
+  <si>
+    <t>Bubble Shooter</t>
+  </si>
+  <si>
+    <t>Gems Journey</t>
+  </si>
+  <si>
+    <t>BMX Boy</t>
+  </si>
+  <si>
+    <t>Bubble Worlds</t>
+  </si>
+  <si>
+    <t>Jewels Star</t>
+  </si>
+  <si>
+    <t>Skater Boy</t>
+  </si>
+  <si>
+    <t>Sudoku Fun</t>
+  </si>
+  <si>
+    <t>Jewels Legend</t>
+  </si>
+  <si>
+    <t>Jewels Star2</t>
+  </si>
+  <si>
+    <t>Racing Moto</t>
+  </si>
+  <si>
+    <t>Bubble Adventure</t>
+  </si>
+  <si>
+    <t>BasketBallShoot</t>
+  </si>
+  <si>
+    <t>BoomAndDoom</t>
+  </si>
+  <si>
+    <t>BubbleFarm</t>
+  </si>
+  <si>
+    <t>BubblePirate</t>
+  </si>
+  <si>
+    <t>Bubble Shooter 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleSpace</t>
+  </si>
+  <si>
+    <t>BubbleTotem</t>
+  </si>
+  <si>
+    <t>CandiesLegend</t>
+  </si>
+  <si>
+    <t>DragonGem</t>
+  </si>
+  <si>
+    <t>FarmStory</t>
+  </si>
+  <si>
+    <t>GemsJourney2</t>
+  </si>
+  <si>
+    <t>JewelsNinja</t>
+  </si>
+  <si>
+    <t>Jewels Star3</t>
+  </si>
+  <si>
+    <t>MagicMania</t>
+  </si>
+  <si>
+    <t>MarbleSaga</t>
+  </si>
+  <si>
+    <t>MarbleSaga2</t>
+  </si>
+  <si>
+    <t>PoolMania</t>
+  </si>
+  <si>
+    <t>SkateBoy2</t>
+  </si>
+  <si>
+    <t>MonsterSplash</t>
+  </si>
+  <si>
+    <t>NumberPuzzle</t>
+  </si>
+  <si>
+    <t>BasketBall</t>
+  </si>
+  <si>
+    <t>Bowling Star</t>
+  </si>
+  <si>
+    <t>Speed Racing</t>
+  </si>
+  <si>
+    <t>LetMeOut</t>
+  </si>
+  <si>
     <t>android</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.game.BubbleShooter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.pandoomobile.GemsJourney</t>
-  </si>
-  <si>
-    <t>com.game.BMX_Boy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hapogames.BubbleParadise</t>
-  </si>
-  <si>
-    <t>com.game.JewelsStar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.game.SkaterBoy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.coolmango.sudokufun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.game.JewelsLegend</t>
-  </si>
-  <si>
-    <t>com.game.JewelsStar2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.games.racingmoto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hapogames.BubbleParadise2</t>
-  </si>
-  <si>
-    <t>com.game.basketballshoot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.games.boomanddoom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.games.BubbleFarm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.game.BubblePirate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.game.BubbleShooter2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.pandoomobile.BubbleSpace</t>
-  </si>
-  <si>
-    <t>com.game.BubbleTotem</t>
-  </si>
-  <si>
-    <t>org.candylegend</t>
-  </si>
-  <si>
-    <t>com.game.DragonGem</t>
-  </si>
-  <si>
-    <t>org.cocos2dx.FarmStory</t>
-  </si>
-  <si>
-    <t>com.pandoomobile.GemsJourney2</t>
-  </si>
-  <si>
-    <t>com.games.JewelsNinja</t>
-  </si>
-  <si>
-    <t>com.game.JewelsStar3</t>
-  </si>
-  <si>
-    <t>com.pandoomobile.MagicMania</t>
-  </si>
-  <si>
-    <t>com.game.MarbleSaga</t>
-  </si>
-  <si>
-    <t>com.game.MarbleSaga2</t>
-  </si>
-  <si>
-    <t>com.game.PoolMania</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.games.SkaterBoyLegend</t>
-  </si>
-  <si>
-    <t>com.games.msplash</t>
-  </si>
-  <si>
-    <t>org.mania2048</t>
-  </si>
-  <si>
-    <t>com.games.basketball</t>
-  </si>
-  <si>
-    <t>com.games.galaxybowling</t>
-  </si>
-  <si>
-    <t>com.games.SpeedRacing</t>
-  </si>
-  <si>
-    <t>com.smootem.letmeout</t>
-  </si>
-  <si>
-    <t>Bubble Shooter</t>
-  </si>
-  <si>
-    <t>BMX Boy</t>
-  </si>
-  <si>
-    <t>Bubble Worlds</t>
-  </si>
-  <si>
-    <t>Jewels Star</t>
-  </si>
-  <si>
-    <t>Skater Boy</t>
-  </si>
-  <si>
-    <t>Sudoku Fun</t>
-  </si>
-  <si>
-    <t>Jewels Legend</t>
-  </si>
-  <si>
-    <t>Jewels Star2</t>
-  </si>
-  <si>
-    <t>Racing Moto</t>
-  </si>
-  <si>
-    <t>Bubble Adventure</t>
-  </si>
-  <si>
-    <t>BasketBallShoot</t>
-  </si>
-  <si>
-    <t>BoomAndDoom</t>
-  </si>
-  <si>
-    <t>BubbleFarm</t>
-  </si>
-  <si>
-    <t>BubblePirate</t>
-  </si>
-  <si>
-    <t>Bubble Shooter 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BubbleSpace</t>
-  </si>
-  <si>
-    <t>BubbleTotem</t>
-  </si>
-  <si>
-    <t>CandiesLegend</t>
-  </si>
-  <si>
-    <t>DragonGem</t>
-  </si>
-  <si>
-    <t>FarmStory</t>
-  </si>
-  <si>
-    <t>GemsJourney2</t>
-  </si>
-  <si>
-    <t>JewelsNinja</t>
-  </si>
-  <si>
-    <t>Jewels Star3</t>
-  </si>
-  <si>
-    <t>MagicMania</t>
-  </si>
-  <si>
-    <t>MarbleSaga</t>
-  </si>
-  <si>
-    <t>MarbleSaga2</t>
-  </si>
-  <si>
-    <t>PoolMania</t>
-  </si>
-  <si>
-    <t>SkateBoy2</t>
-  </si>
-  <si>
-    <t>MonsterSplash</t>
-  </si>
-  <si>
-    <t>NumberPuzzle</t>
-  </si>
-  <si>
-    <t>BasketBall</t>
-  </si>
-  <si>
-    <t>Bowling Star</t>
-  </si>
-  <si>
-    <t>Speed Racing</t>
-  </si>
-  <si>
-    <t>LetMeOut</t>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fuzhou</t>
@@ -300,13 +308,491 @@
   </si>
   <si>
     <t>SolitaireAD</t>
+  </si>
+  <si>
+    <t>common_release</t>
+  </si>
+  <si>
+    <t>Pyramid Solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.pyramid</t>
+  </si>
+  <si>
+    <t>Word Cross_FR</t>
+  </si>
+  <si>
+    <t>Word Cross</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.fr</t>
+  </si>
+  <si>
+    <t>WordGameAD</t>
+  </si>
+  <si>
+    <t>Word Cross_CS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.cs</t>
+  </si>
+  <si>
+    <t>老纸牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross_DE-IOS</t>
+  </si>
+  <si>
+    <t>ios</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common_release</t>
-  </si>
-  <si>
-    <t>Gems Journey</t>
+    <t>com.wordgame.puzzle.board.de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordGameAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross_IT</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.it</t>
+  </si>
+  <si>
+    <t>Word Cross_IT-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_SV</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.sv</t>
+  </si>
+  <si>
+    <t>Word Cross_SV-IOS</t>
+  </si>
+  <si>
+    <t>Word Across</t>
+  </si>
+  <si>
+    <t>Word Across</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.en</t>
+  </si>
+  <si>
+    <t>Word Across-IOS</t>
+  </si>
+  <si>
+    <t>Word Tailor_FR</t>
+  </si>
+  <si>
+    <t>Word Shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word.tailor.match.game.fr</t>
+  </si>
+  <si>
+    <t>Word Shuffle_PT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.pt</t>
+  </si>
+  <si>
+    <t>Word Shuffle_PT-IOS</t>
+  </si>
+  <si>
+    <t>Word Shuffle_CS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.cs</t>
+  </si>
+  <si>
+    <t>Word Shuffle_CS-IOS</t>
+  </si>
+  <si>
+    <t>Bible Word Cross-IOS</t>
+  </si>
+  <si>
+    <t>Bible Word Cross</t>
+  </si>
+  <si>
+    <t>com.wordgames.puzzle.board.bible</t>
+  </si>
+  <si>
+    <t>Word Across_DE</t>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.de</t>
+  </si>
+  <si>
+    <t>Word Across_DE-IOS</t>
+  </si>
+  <si>
+    <t>Word Across_ES</t>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.es</t>
+  </si>
+  <si>
+    <t>Word Across_ES-IOS</t>
+  </si>
+  <si>
+    <t>Word Across_FR</t>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.fr</t>
+  </si>
+  <si>
+    <t>Word Across_FR-IOS</t>
+  </si>
+  <si>
+    <t>Word Across_IT</t>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.it</t>
+  </si>
+  <si>
+    <t>Word Across_IT-IOS</t>
+  </si>
+  <si>
+    <t>Word Across_NL</t>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.nl</t>
+  </si>
+  <si>
+    <t>Word Across_NL-IOS</t>
+  </si>
+  <si>
+    <t>Word Across_PL</t>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.pl</t>
+  </si>
+  <si>
+    <t>Word Across_PL-IOS</t>
+  </si>
+  <si>
+    <t>Word Board</t>
+  </si>
+  <si>
+    <t>Word Swipe Board</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.search</t>
+  </si>
+  <si>
+    <t>Word Board-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.en</t>
+  </si>
+  <si>
+    <t>Word Cross_CS-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_DA-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.da</t>
+  </si>
+  <si>
+    <t>Word Cross_ES</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.es</t>
+  </si>
+  <si>
+    <t>Word Cross_ES-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_ID</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.id</t>
+  </si>
+  <si>
+    <t>Word Cross_ID-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_NL</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.nl</t>
+  </si>
+  <si>
+    <t>Word Cross_NO</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.no</t>
+  </si>
+  <si>
+    <t>Word Cross_NO-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_PL</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.pl</t>
+  </si>
+  <si>
+    <t>Word Cross_PL-IOS</t>
+  </si>
+  <si>
+    <t>Word Dream</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.addictive.story</t>
+  </si>
+  <si>
+    <t>Word Dream-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.en</t>
+  </si>
+  <si>
+    <t>Word Flat_CS-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.cs</t>
+  </si>
+  <si>
+    <t>Word Flat_DA-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.da</t>
+  </si>
+  <si>
+    <t>Word Flat_DE</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.de</t>
+  </si>
+  <si>
+    <t>Word Flat_DE-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat_ES</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.es</t>
+  </si>
+  <si>
+    <t>Word Flat_ES-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat_FR</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.fr</t>
+  </si>
+  <si>
+    <t>Word Flat_FR-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat_NL</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.nl</t>
+  </si>
+  <si>
+    <t>Word Flat_NL-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat_NO</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.no</t>
+  </si>
+  <si>
+    <t>Word Flat_NO-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat_SV</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.flat.sv</t>
+  </si>
+  <si>
+    <t>Word Flat_SV-IOS</t>
+  </si>
+  <si>
+    <t>Word Journey</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.wordcross.en</t>
+  </si>
+  <si>
+    <t>Word Shuffle_DA</t>
+  </si>
+  <si>
+    <t>Word Shuffle</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.da.dk</t>
+  </si>
+  <si>
+    <t>Word Shuffle_DA-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.da</t>
+  </si>
+  <si>
+    <t>Word Shuffle_ID</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.id</t>
+  </si>
+  <si>
+    <t>Word Shuffle_ID-IOS</t>
+  </si>
+  <si>
+    <t>Word Shuffle_NL</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.nl</t>
+  </si>
+  <si>
+    <t>Word Shuffle_NL-IOS</t>
+  </si>
+  <si>
+    <t>Word Shuffle_NO</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.no.no</t>
+  </si>
+  <si>
+    <t>Word Shuffle_NO-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.no</t>
+  </si>
+  <si>
+    <t>Word Shuffle_PL</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.pl</t>
+  </si>
+  <si>
+    <t>Word Shuffle_PL-IOS</t>
+  </si>
+  <si>
+    <t>Word Shuffle_SV</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.sv.se</t>
+  </si>
+  <si>
+    <t>Word Shuffle_SV-IOS</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.sv</t>
+  </si>
+  <si>
+    <t>Word Sushi</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.sushi.en</t>
+  </si>
+  <si>
+    <t>Word Sushi-IOS</t>
+  </si>
+  <si>
+    <t>com.word.game.find.en</t>
+  </si>
+  <si>
+    <t>Word Sushi_DE</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.sushi.de</t>
+  </si>
+  <si>
+    <t>Word Sushi_FR</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.sushi.fr</t>
+  </si>
+  <si>
+    <t>Word Tailor</t>
+  </si>
+  <si>
+    <t>word.tailor.match.game.en</t>
+  </si>
+  <si>
+    <t>Word Tailor_DE</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.de</t>
+  </si>
+  <si>
+    <t>Word Tailor_ES</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.es</t>
+  </si>
+  <si>
+    <t>Word Tailor_IT</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.it</t>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_FR-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.fr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_JA-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.ja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_JA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_ES-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.es</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_ES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,17 +815,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,13 +850,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,12 +1174,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E34BA1-F26C-1840-B680-C78AC115A387}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AE866-1385-4E4B-A976-49DEA77E765F}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="23"/>
@@ -698,9 +1299,10 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,8 +1318,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -734,284 +1339,284 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1019,19 +1624,19 @@
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1039,19 +1644,19 @@
         <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1059,19 +1664,19 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1079,19 +1684,19 @@
         <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1099,19 +1704,19 @@
         <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1119,19 +1724,19 @@
         <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1139,19 +1744,19 @@
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1159,19 +1764,19 @@
         <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1179,19 +1784,19 @@
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1199,19 +1804,19 @@
         <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1219,19 +1824,19 @@
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1239,19 +1844,19 @@
         <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1259,19 +1864,19 @@
         <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1279,19 +1884,19 @@
         <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1299,19 +1904,19 @@
         <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1319,19 +1924,19 @@
         <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1339,19 +1944,19 @@
         <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1359,19 +1964,19 @@
         <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1379,19 +1984,19 @@
         <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1399,19 +2004,19 @@
         <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1419,19 +2024,19 @@
         <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1439,4 +2044,1472 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F407D-E3F8-E843-B19A-2FF51782A72D}">
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talefun-my.sharepoint.cn/personal/yangfuchao_talefun_partner_onmschina_cn/Documents/工作安排/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B00DA8FF-59E9-C248-9159-D9975A2B064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE41C3D3-C083-C34F-844A-625F05449BF1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B48EB2E-7F16-5648-AD2D-790829A0ED7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47280" yWindow="1580" windowWidth="26720" windowHeight="16760" activeTab="2" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
     <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="244">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,13 +795,26 @@
   <si>
     <t>Word Swipe_ES</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross-Pet Story</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.fun.pet</t>
+  </si>
+  <si>
+    <t>Word Restaurant</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.restaurant.story</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -824,6 +838,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2048,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F407D-E3F8-E843-B19A-2FF51782A72D}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -2063,6 +2084,1475 @@
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6186-85B7-6442-8A71-EE936D4A3A0E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -2098,1414 +3588,37 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>94</v>
+      <c r="A3" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>98</v>
+      <c r="A4" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
+      <c r="C4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>180</v>
-      </c>
-      <c r="E54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" t="s">
-        <v>186</v>
-      </c>
-      <c r="E58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" t="s">
-        <v>192</v>
-      </c>
-      <c r="E60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" t="s">
-        <v>196</v>
-      </c>
-      <c r="E63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>198</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>205</v>
-      </c>
-      <c r="B68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" t="s">
-        <v>206</v>
-      </c>
-      <c r="E68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" t="s">
-        <v>206</v>
-      </c>
-      <c r="E69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" t="s">
-        <v>209</v>
-      </c>
-      <c r="E70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" t="s">
-        <v>216</v>
-      </c>
-      <c r="E73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>213</v>
-      </c>
-      <c r="D75" t="s">
-        <v>220</v>
-      </c>
-      <c r="E75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" t="s">
-        <v>222</v>
-      </c>
-      <c r="E76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" t="s">
-        <v>224</v>
-      </c>
-      <c r="E77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" t="s">
-        <v>226</v>
-      </c>
-      <c r="E78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>227</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>231</v>
-      </c>
-      <c r="D80" t="s">
-        <v>232</v>
-      </c>
-      <c r="E80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>231</v>
-      </c>
-      <c r="D81" t="s">
-        <v>232</v>
-      </c>
-      <c r="E81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" t="s">
-        <v>235</v>
-      </c>
-      <c r="E82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>236</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" t="s">
-        <v>235</v>
-      </c>
-      <c r="E83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>239</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>231</v>
-      </c>
-      <c r="D85" t="s">
-        <v>238</v>
-      </c>
-      <c r="E85" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B48EB2E-7F16-5648-AD2D-790829A0ED7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B876AC2-D176-8142-945C-7E26231EB1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
     <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="287">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,6 +809,138 @@
   </si>
   <si>
     <t>com.wordgame.puzzle.restaurant.story</t>
+  </si>
+  <si>
+    <t>Classic Solitaire</t>
+  </si>
+  <si>
+    <t>Daily Challenge</t>
+  </si>
+  <si>
+    <t>FreeCell</t>
+  </si>
+  <si>
+    <t>FreeCell2</t>
+  </si>
+  <si>
+    <t>FreeCell_IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Collection</t>
+  </si>
+  <si>
+    <t>Solitaire Collection_IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Flat</t>
+  </si>
+  <si>
+    <t>Solitaire Lite</t>
+  </si>
+  <si>
+    <t>Solitaire1</t>
+  </si>
+  <si>
+    <t>Solitaire2</t>
+  </si>
+  <si>
+    <t>Solitaire_IOS</t>
+  </si>
+  <si>
+    <t>Spider Solitaire_IOS</t>
+  </si>
+  <si>
+    <t>Spider2</t>
+  </si>
+  <si>
+    <t>Super Challenges</t>
+  </si>
+  <si>
+    <t>Tripeaks Solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire.dailyChallenge</t>
+  </si>
+  <si>
+    <t>com.queensgame.freecell</t>
+  </si>
+  <si>
+    <t>com.hapogames.FreeCell</t>
+  </si>
+  <si>
+    <t>com.queensgame.collection</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.flat</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.lite</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.basic1</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.basic2</t>
+  </si>
+  <si>
+    <t>com.queensgame.spider</t>
+  </si>
+  <si>
+    <t>com.queensgame.spider2</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.full</t>
+  </si>
+  <si>
+    <t>com.queensgame.tripeaks</t>
+  </si>
+  <si>
+    <t>老纸牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solitaire-Fish Go-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.patience.fish.go</t>
+  </si>
+  <si>
+    <t>TripeaksAD</t>
+  </si>
+  <si>
+    <t>Solitaire Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream Farm Story</t>
+  </si>
+  <si>
+    <t>Solitaire Tripeaks Farm</t>
+  </si>
+  <si>
+    <t>Solitaire-Dream Farm</t>
+  </si>
+  <si>
+    <t>Solitaire-Dream Farm-IOS</t>
+  </si>
+  <si>
+    <t>com.solitaire.tripeaks.free.card.game.dream.farm.story</t>
+  </si>
+  <si>
+    <t>com.solitaire.tripeaks.free.card.game.dream.farm.fun</t>
+  </si>
+  <si>
+    <t>com.solitaire.tripeaks.free.card.games.dream.farm.animal</t>
+  </si>
+  <si>
+    <t>SolitaireFarmAD</t>
+  </si>
+  <si>
+    <t>Solitaire Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -871,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +1015,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1199,7 +1333,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1311,7 +1445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="23"/>
@@ -3540,9 +3674,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6186-85B7-6442-8A71-EE936D4A3A0E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3553,6 +3687,99 @@
     <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8FC9A-04A6-7C47-9990-4195A36ABBA6}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -3589,36 +3816,359 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B876AC2-D176-8142-945C-7E26231EB1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C79D93-C28B-D846-8392-CAD098DA2EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="317">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,19 +916,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dream Farm Story</t>
-  </si>
-  <si>
     <t>Solitaire Tripeaks Farm</t>
   </si>
   <si>
     <t>Solitaire-Dream Farm</t>
-  </si>
-  <si>
-    <t>Solitaire-Dream Farm-IOS</t>
-  </si>
-  <si>
-    <t>com.solitaire.tripeaks.free.card.game.dream.farm.story</t>
   </si>
   <si>
     <t>com.solitaire.tripeaks.free.card.game.dream.farm.fun</t>
@@ -941,6 +933,109 @@
   <si>
     <t>Solitaire Farm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection Fishdom</t>
+  </si>
+  <si>
+    <t>FreeCell Fishdom</t>
+  </si>
+  <si>
+    <t>Pyramid Fishdom</t>
+  </si>
+  <si>
+    <t>Solitaire Fishdom</t>
+  </si>
+  <si>
+    <t>Spider Fishdom</t>
+  </si>
+  <si>
+    <t>Tripeaks Fishdom</t>
+  </si>
+  <si>
+    <t>Solitaire Fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.pyramid.fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.spider.fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.tripeaks.fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.freecell.fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.collection.fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross_DE</t>
+  </si>
+  <si>
+    <t>Word Cross_DA</t>
+  </si>
+  <si>
+    <t>Word Cross_FR-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_JA</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.ja</t>
+  </si>
+  <si>
+    <t>Word Cross_JA-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_NL-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat_IOS</t>
+  </si>
+  <si>
+    <t>Word Swipe</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush</t>
+  </si>
+  <si>
+    <t>Word Swipe Puzzle-IOS</t>
+  </si>
+  <si>
+    <t>Word Swipe_CN-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.zh</t>
+  </si>
+  <si>
+    <t>Word Swipe_DE</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.de</t>
+  </si>
+  <si>
+    <t>Word Swipe_DE-IOS</t>
+  </si>
+  <si>
+    <t>Word Swipe Pic</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.pic.en</t>
+  </si>
+  <si>
+    <t>Word Swipe Pic-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.pic</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1428,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1443,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AE866-1385-4E4B-A976-49DEA77E765F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -3766,9 +3861,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8FC9A-04A6-7C47-9990-4195A36ABBA6}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3780,6 +3875,389 @@
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5F52D-AC32-384B-9BDC-CE7567ECB7A3}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -3816,16 +4294,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -3833,16 +4311,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -3850,16 +4328,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -3867,16 +4345,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -3884,16 +4362,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -3901,274 +4379,291 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>211</v>
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>264</v>
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>265</v>
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>80</v>
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>266</v>
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>268</v>
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>211</v>
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>260</v>
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>211</v>
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>269</v>
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>301</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>80</v>
+      <c r="A16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>270</v>
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>271</v>
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>273</v>
+      <c r="C18" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C19" t="s">
-        <v>277</v>
+      <c r="C19" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>286</v>
+        <v>211</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
-        <v>279</v>
+      <c r="A21" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
-        <v>286</v>
+      <c r="C21" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>286</v>
+        <v>211</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" t="s">
-        <v>285</v>
+      <c r="C24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talefun-my.sharepoint.cn/personal/yangfuchao_talefun_partner_onmschina_cn/Documents/工作安排/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C79D93-C28B-D846-8392-CAD098DA2EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{B00DA8FF-59E9-C248-9159-D9975A2B064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CCE21BE-D1E8-7D47-A092-EAD208158FC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="46600" yWindow="460" windowWidth="26720" windowHeight="16760" activeTab="6" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="322">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1037,21 @@
   </si>
   <si>
     <t>com.wordgame.puzzle.block.crush.pic</t>
+  </si>
+  <si>
+    <t>Solitaire Fish-IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Fish</t>
+  </si>
+  <si>
+    <t>com.solitaire.klondike.patience.ocean.aquarium.fun</t>
+  </si>
+  <si>
+    <t>com.solitaire.klondike.patience.ocean.aquarium</t>
+  </si>
+  <si>
+    <t>SolitairefishAD</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1444,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1538,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AE866-1385-4E4B-A976-49DEA77E765F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2301,7 +2317,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A80" sqref="A80:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -3769,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6186-85B7-6442-8A71-EE936D4A3A0E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -3803,25 +3819,25 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -3830,26 +3846,9 @@
         <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3861,10 +3860,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8FC9A-04A6-7C47-9990-4195A36ABBA6}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -3896,25 +3895,25 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>273</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
@@ -3923,7 +3922,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -3931,7 +3930,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>80</v>
@@ -3940,7 +3939,7 @@
         <v>273</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -3948,7 +3947,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>80</v>
@@ -3957,7 +3956,7 @@
         <v>273</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -3965,16 +3964,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>273</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -3982,16 +3981,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>273</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -3999,10 +3998,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
         <v>273</v>
@@ -4016,16 +4015,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>273</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
@@ -4033,7 +4032,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -4042,7 +4041,7 @@
         <v>273</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
@@ -4050,7 +4049,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>80</v>
@@ -4059,7 +4058,7 @@
         <v>273</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
@@ -4067,7 +4066,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>80</v>
@@ -4076,7 +4075,7 @@
         <v>273</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
@@ -4084,16 +4083,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>273</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
@@ -4101,7 +4100,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>211</v>
@@ -4110,7 +4109,7 @@
         <v>273</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
@@ -4118,16 +4117,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>273</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
@@ -4135,7 +4134,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -4144,7 +4143,7 @@
         <v>273</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
@@ -4152,7 +4151,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>80</v>
@@ -4161,7 +4160,7 @@
         <v>273</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
@@ -4169,41 +4168,41 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>278</v>
+      <c r="A20" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>80</v>
@@ -4212,26 +4211,9 @@
         <v>283</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4243,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5F52D-AC32-384B-9BDC-CE7567ECB7A3}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4258,6 +4240,423 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB4F10C-38D3-8E4E-BF7E-7EB110955AED}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -4276,394 +4675,37 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="A2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>290</v>
+      <c r="C3" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talefun-my.sharepoint.cn/personal/yangfuchao_talefun_partner_onmschina_cn/Documents/工作安排/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{B00DA8FF-59E9-C248-9159-D9975A2B064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CCE21BE-D1E8-7D47-A092-EAD208158FC9}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{B00DA8FF-59E9-C248-9159-D9975A2B064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1016E47-0B54-5948-8C5C-7286D5907656}"/>
   <bookViews>
-    <workbookView xWindow="46600" yWindow="460" windowWidth="26720" windowHeight="16760" activeTab="6" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="1520" yWindow="3040" windowWidth="26720" windowHeight="16760" activeTab="7" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="386">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,13 +1053,232 @@
   </si>
   <si>
     <t>SolitairefishAD</t>
+  </si>
+  <si>
+    <t>Spider Solitaire</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.tournaments.free.klondike.classic</t>
+  </si>
+  <si>
+    <t>Solitaire Club</t>
+  </si>
+  <si>
+    <t>solitaireclubAD</t>
+  </si>
+  <si>
+    <t>Solitaire Journey</t>
+  </si>
+  <si>
+    <t>Solitaire Journey_IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Discovery</t>
+  </si>
+  <si>
+    <t>Solitaire Discovery-IOS</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire.journey</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire.journey</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.discovery</t>
+  </si>
+  <si>
+    <t>Classic Solitaire Journey</t>
+  </si>
+  <si>
+    <t>com.cardgames.classic.solitaire.world</t>
+  </si>
+  <si>
+    <t>Classic Solitaire World</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.klondike.classic.tt</t>
+  </si>
+  <si>
+    <t>Solitaire Fun_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solitaire Fun</t>
+  </si>
+  <si>
+    <t>Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.klondike.spider.freecell.classic</t>
+  </si>
+  <si>
+    <t>Spider Solitaire Fun</t>
+  </si>
+  <si>
+    <t>Spider Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.spider.classic</t>
+  </si>
+  <si>
+    <t>Pyramid Solitaire Fun</t>
+  </si>
+  <si>
+    <t>Pyramid Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Collection Fun</t>
+  </si>
+  <si>
+    <t>Solitaire Collection Fun-IOS</t>
+  </si>
+  <si>
+    <t>TriPeaks Solitaire Fun</t>
+  </si>
+  <si>
+    <t>TriPeaks Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>FreeCell Solitaire Fun</t>
+  </si>
+  <si>
+    <t>FreeCell Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.pyramid.classic</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.collection.classic</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.tripeaks.classic</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.freecell.classic</t>
+  </si>
+  <si>
+    <t>Solitaire Collection Plus</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.patience.free.klondike.spider.collection.classic</t>
+  </si>
+  <si>
+    <t>Solitaire Dark Mode</t>
+  </si>
+  <si>
+    <t>com.solitaire.classic.card.game.klondike.darkmode</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.discovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.classic.solitaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Sliding-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Sliding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.puzzle.blockslider.jewel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puzzly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick Ball Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.brick.breaker.ball.shooting.blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Jigsaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.hexa.animation.images.picture.jigsaw.block.puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bricks VS Balls-CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blastball.general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bricks VS Balls-CN-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blastball.ios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ball Brick Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ball.brick.star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonogram fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.game.puzzle.nonogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doodle Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.coloring.games.doodle.paint.number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doodle Color-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.relax.coloring.games.color.by.number.colourpop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop Color-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bricks VS Balls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -1092,6 +1312,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1115,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1360,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4228,7 +4465,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4642,10 +4879,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB4F10C-38D3-8E4E-BF7E-7EB110955AED}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4657,6 +4894,83 @@
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C80768-A08F-D140-801A-855CAEEB66C2}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -4675,37 +4989,598 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" t="s">
-        <v>321</v>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>384</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入.xlsx
+++ b/defineFiles/广告配置阶段导入.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talefun-my.sharepoint.cn/personal/yangfuchao_talefun_partner_onmschina_cn/Documents/工作安排/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{B00DA8FF-59E9-C248-9159-D9975A2B064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1016E47-0B54-5948-8C5C-7286D5907656}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE894690-D8E7-A94C-8FE4-91A89DC99DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="3040" windowWidth="26720" windowHeight="16760" activeTab="7" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="3000" yWindow="840" windowWidth="30940" windowHeight="16760" activeTab="8" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="8" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="398">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,6 +1273,54 @@
   </si>
   <si>
     <t>Bricks VS Balls</t>
+  </si>
+  <si>
+    <t>Bricks VS Balls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACoinGamesAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bricks VS Balls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.acoin.ballz.bricks.breaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bricks VS Balls-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ball.brick.break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pixel.art.coloring.by.number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap Color-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap Color Lite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coloring.color.number.happy.paint.art.drawing.puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap Color Lite-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1678,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E34BA1-F26C-1840-B680-C78AC115A387}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1693,7 +1742,7 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1762,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1746,8 +1795,11 @@
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
@@ -1764,7 +1816,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -2553,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F407D-E3F8-E843-B19A-2FF51782A72D}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A80" sqref="A80:A85"/>
     </sheetView>
   </sheetViews>
@@ -4100,7 +4152,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4147,6 +4199,9 @@
       <c r="E2" t="s">
         <v>83</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -4164,6 +4219,9 @@
       <c r="E3" t="s">
         <v>83</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -4181,6 +4239,9 @@
       <c r="E4" t="s">
         <v>83</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -4198,6 +4259,9 @@
       <c r="E5" t="s">
         <v>83</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -4215,6 +4279,9 @@
       <c r="E6" t="s">
         <v>83</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
@@ -4232,6 +4299,9 @@
       <c r="E7" t="s">
         <v>83</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -4249,6 +4319,9 @@
       <c r="E8" t="s">
         <v>83</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
@@ -4266,6 +4339,9 @@
       <c r="E9" t="s">
         <v>83</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
@@ -4283,6 +4359,9 @@
       <c r="E10" t="s">
         <v>83</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -4368,6 +4447,9 @@
       <c r="E15" t="s">
         <v>83</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
@@ -4385,8 +4467,11 @@
       <c r="E16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>259</v>
       </c>
@@ -4402,8 +4487,11 @@
       <c r="E17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>274</v>
       </c>
@@ -4420,7 +4508,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>278</v>
       </c>
@@ -4437,7 +4525,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>279</v>
       </c>
@@ -4462,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5F52D-AC32-384B-9BDC-CE7567ECB7A3}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4477,7 +4565,7 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4585,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>284</v>
       </c>
@@ -4513,8 +4601,11 @@
       <c r="E2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>285</v>
       </c>
@@ -4530,8 +4621,11 @@
       <c r="E3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>286</v>
       </c>
@@ -4547,8 +4641,11 @@
       <c r="E4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>287</v>
       </c>
@@ -4564,8 +4661,11 @@
       <c r="E5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>288</v>
       </c>
@@ -4581,8 +4681,11 @@
       <c r="E6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>289</v>
       </c>
@@ -4598,8 +4701,11 @@
       <c r="E7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -4616,7 +4722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -4633,7 +4739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -4650,7 +4756,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>298</v>
       </c>
@@ -4667,7 +4773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>299</v>
       </c>
@@ -4684,7 +4790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>300</v>
       </c>
@@ -4701,7 +4807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -4718,7 +4824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>303</v>
       </c>
@@ -4735,7 +4841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -4956,10 +5062,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C80768-A08F-D140-801A-855CAEEB66C2}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4971,6 +5077,665 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>384</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB53D5D5-C9D1-8C40-AB36-1812379F5B9A}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -4989,597 +5754,104 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>83</v>
+      <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>323</v>
+        <v>386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>391</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>80</v>
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>330</v>
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>393</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>211</v>
+      <c r="A5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>331</v>
+        <v>384</v>
+      </c>
+      <c r="D5" t="s">
+        <v>393</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>80</v>
+      <c r="A6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>360</v>
+        <v>384</v>
+      </c>
+      <c r="D6" t="s">
+        <v>396</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>211</v>
+      <c r="A7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>332</v>
+        <v>384</v>
+      </c>
+      <c r="D7" t="s">
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>363</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>366</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>385</v>
-      </c>
-      <c r="D27" t="s">
-        <v>367</v>
-      </c>
-      <c r="E27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>384</v>
-      </c>
-      <c r="D28" t="s">
-        <v>369</v>
-      </c>
-      <c r="E28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>385</v>
-      </c>
-      <c r="D29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>372</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E30" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>374</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>385</v>
-      </c>
-      <c r="D31" t="s">
-        <v>375</v>
-      </c>
-      <c r="E31" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>376</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>384</v>
-      </c>
-      <c r="D32" t="s">
-        <v>377</v>
-      </c>
-      <c r="E32" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>378</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>384</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E33" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>380</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>384</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>381</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D35" t="s">
-        <v>382</v>
-      </c>
-      <c r="E35" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>383</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>384</v>
-      </c>
-      <c r="D36" t="s">
-        <v>382</v>
-      </c>
-      <c r="E36" t="s">
         <v>365</v>
       </c>
     </row>
